--- a/Intelgic/master.xlsx
+++ b/Intelgic/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sripa\Documents\Intelgic\My Scripts\OneDrive\Intelgic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D5F68-4E1E-454E-AC36-36E9B058FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E37E3-FBAD-45C3-BAD0-F98759A47A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7CF025ED-8703-4A98-B3C8-4FF7B48863CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7CF025ED-8703-4A98-B3C8-4FF7B48863CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,87 @@
   </si>
   <si>
     <t>C:\Users\Intelgic\Desktop\Upload</t>
+  </si>
+  <si>
+    <t>.docx</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
+  </si>
+  <si>
+    <t>.doc</t>
+  </si>
+  <si>
+    <t>application/msword</t>
+  </si>
+  <si>
+    <t>.mp3</t>
+  </si>
+  <si>
+    <t>audio/mpeg</t>
+  </si>
+  <si>
+    <t>.mp4</t>
+  </si>
+  <si>
+    <t>video/mp4</t>
+  </si>
+  <si>
+    <t>.mpeg4</t>
+  </si>
+  <si>
+    <t>application/mp</t>
+  </si>
+  <si>
+    <t>application/zip</t>
+  </si>
+  <si>
+    <t>application/rar</t>
+  </si>
+  <si>
+    <t>application/tar</t>
+  </si>
+  <si>
+    <t>application/arj</t>
+  </si>
+  <si>
+    <t>application/cab</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>text/js</t>
+  </si>
+  <si>
+    <t>application/x-shockwave-flash</t>
+  </si>
+  <si>
+    <t>.js</t>
+  </si>
+  <si>
+    <t>.swf</t>
+  </si>
+  <si>
+    <t>.htm</t>
+  </si>
+  <si>
+    <t>.html</t>
+  </si>
+  <si>
+    <t>.cab</t>
+  </si>
+  <si>
+    <t>.arj</t>
+  </si>
+  <si>
+    <t>.tar</t>
+  </si>
+  <si>
+    <t>.rar</t>
+  </si>
+  <si>
+    <t>.zip</t>
   </si>
 </sst>
 </file>
@@ -499,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A457444F-1359-45EE-BAA7-009E27FAD360}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -562,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EE35FB-BDF2-4FAC-A201-3DCBC17AFF52}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,6 +763,118 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
